--- a/INTLINE/data/134/DEUSTATIS/Persons employed and turnover of local units in manufacturing.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed and turnover of local units in manufacturing.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="68">
   <si>
     <t>Persons employed and turnover of local units in
 manufacturing: Germany, months, economic activities
@@ -217,7 +217,7 @@
     <t>in branch assignments.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:26:10</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:03:52</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4352,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="193" max="193" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
-    <col min="208" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="211" max="16384" style="7" width="12.7109375" collapsed="true"/>
+    <col min="210" max="210" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="209" max="209" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
+    <col min="208" max="208" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="207" max="207" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="206" max="206" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
     <col min="205" max="205" style="7" width="14.66796875" collapsed="true" customWidth="true"/>
@@ -4743,6 +4746,9 @@
     <col min="205" max="205" width="11.09375" customWidth="true"/>
     <col min="206" max="206" width="11.09375" customWidth="true"/>
     <col min="207" max="207" width="11.09375" customWidth="true"/>
+    <col min="208" max="208" width="11.09375" customWidth="true"/>
+    <col min="209" max="209" width="11.09375" customWidth="true"/>
+    <col min="210" max="210" width="11.09375" customWidth="true"/>
     <col min="1" max="1" width="31.50390625" style="7" customWidth="true"/>
   </cols>
   <sheetData>
@@ -6305,14 +6311,14 @@
       <c r="GY8" t="n" s="10">
         <v>22287.0</v>
       </c>
-      <c r="GZ8" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA8" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB8" t="s" s="10">
-        <v>38</v>
+      <c r="GZ8" t="n" s="10">
+        <v>22597.0</v>
+      </c>
+      <c r="HA8" t="n" s="10">
+        <v>22660.0</v>
+      </c>
+      <c r="HB8" t="n" s="10">
+        <v>22667.0</v>
       </c>
       <c r="HC8" t="s" s="10">
         <v>38</v>
@@ -6961,14 +6967,14 @@
       <c r="GY9" t="n" s="10">
         <v>5479979.0</v>
       </c>
-      <c r="GZ9" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA9" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB9" t="s" s="10">
-        <v>38</v>
+      <c r="GZ9" t="n" s="10">
+        <v>5502842.0</v>
+      </c>
+      <c r="HA9" t="n" s="10">
+        <v>5508703.0</v>
+      </c>
+      <c r="HB9" t="n" s="10">
+        <v>5506556.0</v>
       </c>
       <c r="HC9" t="s" s="10">
         <v>38</v>
@@ -7617,14 +7623,14 @@
       <c r="GY10" t="n" s="10">
         <v>673114.0</v>
       </c>
-      <c r="GZ10" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA10" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB10" t="s" s="10">
-        <v>38</v>
+      <c r="GZ10" t="n" s="10">
+        <v>684248.0</v>
+      </c>
+      <c r="HA10" t="n" s="10">
+        <v>745467.0</v>
+      </c>
+      <c r="HB10" t="n" s="10">
+        <v>648090.0</v>
       </c>
       <c r="HC10" t="s" s="10">
         <v>38</v>
@@ -8273,14 +8279,14 @@
       <c r="GY11" t="n" s="10">
         <v>2.4275509E7</v>
       </c>
-      <c r="GZ11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB11" t="s" s="10">
-        <v>38</v>
+      <c r="GZ11" t="n" s="10">
+        <v>2.4868959E7</v>
+      </c>
+      <c r="HA11" t="n" s="10">
+        <v>2.4965718E7</v>
+      </c>
+      <c r="HB11" t="n" s="10">
+        <v>2.6606131E7</v>
       </c>
       <c r="HC11" t="s" s="10">
         <v>38</v>
@@ -8929,14 +8935,14 @@
       <c r="GY12" t="n" s="10">
         <v>1.54387145E8</v>
       </c>
-      <c r="GZ12" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA12" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB12" t="s" s="10">
-        <v>38</v>
+      <c r="GZ12" t="n" s="10">
+        <v>1.64323812E8</v>
+      </c>
+      <c r="HA12" t="n" s="10">
+        <v>1.89104704E8</v>
+      </c>
+      <c r="HB12" t="n" s="10">
+        <v>1.65669369E8</v>
       </c>
       <c r="HC12" t="s" s="10">
         <v>38</v>
@@ -9585,14 +9591,14 @@
       <c r="GY13" t="n" s="10">
         <v>7.8023535E7</v>
       </c>
-      <c r="GZ13" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA13" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB13" t="s" s="10">
-        <v>38</v>
+      <c r="GZ13" t="n" s="10">
+        <v>8.1285458E7</v>
+      </c>
+      <c r="HA13" t="n" s="10">
+        <v>9.5020851E7</v>
+      </c>
+      <c r="HB13" t="n" s="10">
+        <v>8.4648976E7</v>
       </c>
       <c r="HC13" t="s" s="10">
         <v>38</v>
@@ -10241,14 +10247,14 @@
       <c r="GY14" t="n" s="10">
         <v>7.636361E7</v>
       </c>
-      <c r="GZ14" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA14" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB14" t="s" s="10">
-        <v>38</v>
+      <c r="GZ14" t="n" s="10">
+        <v>8.3038353E7</v>
+      </c>
+      <c r="HA14" t="n" s="10">
+        <v>9.4083853E7</v>
+      </c>
+      <c r="HB14" t="n" s="10">
+        <v>8.1020393E7</v>
       </c>
       <c r="HC14" t="s" s="10">
         <v>38</v>
@@ -10897,14 +10903,14 @@
       <c r="GY15" t="n" s="10">
         <v>3.2162076E7</v>
       </c>
-      <c r="GZ15" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA15" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB15" t="s" s="10">
-        <v>38</v>
+      <c r="GZ15" t="n" s="10">
+        <v>3.381601E7</v>
+      </c>
+      <c r="HA15" t="n" s="10">
+        <v>3.8505887E7</v>
+      </c>
+      <c r="HB15" t="n" s="10">
+        <v>3.3719005E7</v>
       </c>
       <c r="HC15" t="s" s="10">
         <v>38</v>
@@ -11553,14 +11559,14 @@
       <c r="GY16" t="n" s="10">
         <v>4.4201534E7</v>
       </c>
-      <c r="GZ16" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA16" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB16" t="s" s="10">
-        <v>38</v>
+      <c r="GZ16" t="n" s="10">
+        <v>4.9222343E7</v>
+      </c>
+      <c r="HA16" t="n" s="10">
+        <v>5.5577966E7</v>
+      </c>
+      <c r="HB16" t="n" s="10">
+        <v>4.7301388E7</v>
       </c>
       <c r="HC16" t="s" s="10">
         <v>38</v>
@@ -12214,14 +12220,14 @@
       <c r="GY18" t="n" s="10">
         <v>9842.0</v>
       </c>
-      <c r="GZ18" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA18" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB18" t="s" s="10">
-        <v>38</v>
+      <c r="GZ18" t="n" s="10">
+        <v>9990.0</v>
+      </c>
+      <c r="HA18" t="n" s="10">
+        <v>10019.0</v>
+      </c>
+      <c r="HB18" t="n" s="10">
+        <v>10021.0</v>
       </c>
       <c r="HC18" t="s" s="10">
         <v>38</v>
@@ -12870,14 +12876,14 @@
       <c r="GY19" t="n" s="10">
         <v>2048935.0</v>
       </c>
-      <c r="GZ19" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA19" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB19" t="s" s="10">
-        <v>38</v>
+      <c r="GZ19" t="n" s="10">
+        <v>2059273.0</v>
+      </c>
+      <c r="HA19" t="n" s="10">
+        <v>2060924.0</v>
+      </c>
+      <c r="HB19" t="n" s="10">
+        <v>2058673.0</v>
       </c>
       <c r="HC19" t="s" s="10">
         <v>38</v>
@@ -13526,14 +13532,14 @@
       <c r="GY20" t="n" s="10">
         <v>257954.0</v>
       </c>
-      <c r="GZ20" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA20" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB20" t="s" s="10">
-        <v>38</v>
+      <c r="GZ20" t="n" s="10">
+        <v>258448.0</v>
+      </c>
+      <c r="HA20" t="n" s="10">
+        <v>283537.0</v>
+      </c>
+      <c r="HB20" t="n" s="10">
+        <v>247192.0</v>
       </c>
       <c r="HC20" t="s" s="10">
         <v>38</v>
@@ -14182,14 +14188,14 @@
       <c r="GY21" t="n" s="10">
         <v>8747414.0</v>
       </c>
-      <c r="GZ21" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA21" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB21" t="s" s="10">
-        <v>38</v>
+      <c r="GZ21" t="n" s="10">
+        <v>8538326.0</v>
+      </c>
+      <c r="HA21" t="n" s="10">
+        <v>8923449.0</v>
+      </c>
+      <c r="HB21" t="n" s="10">
+        <v>9659669.0</v>
       </c>
       <c r="HC21" t="s" s="10">
         <v>38</v>
@@ -14838,14 +14844,14 @@
       <c r="GY22" t="n" s="10">
         <v>5.8346548E7</v>
       </c>
-      <c r="GZ22" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA22" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB22" t="s" s="10">
-        <v>38</v>
+      <c r="GZ22" t="n" s="10">
+        <v>6.0418485E7</v>
+      </c>
+      <c r="HA22" t="n" s="10">
+        <v>7.0083841E7</v>
+      </c>
+      <c r="HB22" t="n" s="10">
+        <v>6.1960886E7</v>
       </c>
       <c r="HC22" t="s" s="10">
         <v>38</v>
@@ -15494,14 +15500,14 @@
       <c r="GY23" t="n" s="10">
         <v>2.9894499E7</v>
       </c>
-      <c r="GZ23" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA23" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB23" t="s" s="10">
-        <v>38</v>
+      <c r="GZ23" t="n" s="10">
+        <v>3.1341774E7</v>
+      </c>
+      <c r="HA23" t="n" s="10">
+        <v>3.6548936E7</v>
+      </c>
+      <c r="HB23" t="n" s="10">
+        <v>3.2558922E7</v>
       </c>
       <c r="HC23" t="s" s="10">
         <v>38</v>
@@ -16150,14 +16156,14 @@
       <c r="GY24" t="n" s="10">
         <v>2.8452048E7</v>
       </c>
-      <c r="GZ24" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA24" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB24" t="s" s="10">
-        <v>38</v>
+      <c r="GZ24" t="n" s="10">
+        <v>2.907671E7</v>
+      </c>
+      <c r="HA24" t="n" s="10">
+        <v>3.3534905E7</v>
+      </c>
+      <c r="HB24" t="n" s="10">
+        <v>2.9401964E7</v>
       </c>
       <c r="HC24" t="s" s="10">
         <v>38</v>
@@ -16806,14 +16812,14 @@
       <c r="GY25" t="n" s="10">
         <v>1.3812255E7</v>
       </c>
-      <c r="GZ25" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA25" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB25" t="s" s="10">
-        <v>38</v>
+      <c r="GZ25" t="n" s="10">
+        <v>1.398682E7</v>
+      </c>
+      <c r="HA25" t="n" s="10">
+        <v>1.5907382E7</v>
+      </c>
+      <c r="HB25" t="n" s="10">
+        <v>1.3979293E7</v>
       </c>
       <c r="HC25" t="s" s="10">
         <v>38</v>
@@ -17462,14 +17468,14 @@
       <c r="GY26" t="n" s="10">
         <v>1.4639794E7</v>
       </c>
-      <c r="GZ26" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA26" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB26" t="s" s="10">
-        <v>38</v>
+      <c r="GZ26" t="n" s="10">
+        <v>1.508989E7</v>
+      </c>
+      <c r="HA26" t="n" s="10">
+        <v>1.7627523E7</v>
+      </c>
+      <c r="HB26" t="n" s="10">
+        <v>1.5422671E7</v>
       </c>
       <c r="HC26" t="s" s="10">
         <v>38</v>
@@ -18123,14 +18129,14 @@
       <c r="GY28" t="n" s="10">
         <v>7628.0</v>
       </c>
-      <c r="GZ28" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA28" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB28" t="s" s="10">
-        <v>38</v>
+      <c r="GZ28" t="n" s="10">
+        <v>7724.0</v>
+      </c>
+      <c r="HA28" t="n" s="10">
+        <v>7748.0</v>
+      </c>
+      <c r="HB28" t="n" s="10">
+        <v>7752.0</v>
       </c>
       <c r="HC28" t="s" s="10">
         <v>38</v>
@@ -18779,14 +18785,14 @@
       <c r="GY29" t="n" s="10">
         <v>2402733.0</v>
       </c>
-      <c r="GZ29" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA29" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB29" t="s" s="10">
-        <v>38</v>
+      <c r="GZ29" t="n" s="10">
+        <v>2409677.0</v>
+      </c>
+      <c r="HA29" t="n" s="10">
+        <v>2410352.0</v>
+      </c>
+      <c r="HB29" t="n" s="10">
+        <v>2411690.0</v>
       </c>
       <c r="HC29" t="s" s="10">
         <v>38</v>
@@ -19435,14 +19441,14 @@
       <c r="GY30" t="n" s="10">
         <v>286272.0</v>
       </c>
-      <c r="GZ30" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA30" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB30" t="s" s="10">
-        <v>38</v>
+      <c r="GZ30" t="n" s="10">
+        <v>298456.0</v>
+      </c>
+      <c r="HA30" t="n" s="10">
+        <v>323005.0</v>
+      </c>
+      <c r="HB30" t="n" s="10">
+        <v>276830.0</v>
       </c>
       <c r="HC30" t="s" s="10">
         <v>38</v>
@@ -20091,14 +20097,14 @@
       <c r="GY31" t="n" s="10">
         <v>1.1890019E7</v>
       </c>
-      <c r="GZ31" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA31" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB31" t="s" s="10">
-        <v>38</v>
+      <c r="GZ31" t="n" s="10">
+        <v>1.2662358E7</v>
+      </c>
+      <c r="HA31" t="n" s="10">
+        <v>1.2087745E7</v>
+      </c>
+      <c r="HB31" t="n" s="10">
+        <v>1.2803634E7</v>
       </c>
       <c r="HC31" t="s" s="10">
         <v>38</v>
@@ -20747,14 +20753,14 @@
       <c r="GY32" t="n" s="10">
         <v>6.1552535E7</v>
       </c>
-      <c r="GZ32" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA32" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB32" t="s" s="10">
-        <v>38</v>
+      <c r="GZ32" t="n" s="10">
+        <v>6.8384575E7</v>
+      </c>
+      <c r="HA32" t="n" s="10">
+        <v>7.7003947E7</v>
+      </c>
+      <c r="HB32" t="n" s="10">
+        <v>6.4942691E7</v>
       </c>
       <c r="HC32" t="s" s="10">
         <v>38</v>
@@ -21403,14 +21409,14 @@
       <c r="GY33" t="n" s="10">
         <v>2.35205E7</v>
       </c>
-      <c r="GZ33" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA33" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB33" t="s" s="10">
-        <v>38</v>
+      <c r="GZ33" t="n" s="10">
+        <v>2.4914143E7</v>
+      </c>
+      <c r="HA33" t="n" s="10">
+        <v>2.8644703E7</v>
+      </c>
+      <c r="HB33" t="n" s="10">
+        <v>2.4031171E7</v>
       </c>
       <c r="HC33" t="s" s="10">
         <v>38</v>
@@ -22059,14 +22065,14 @@
       <c r="GY34" t="n" s="10">
         <v>3.8032035E7</v>
       </c>
-      <c r="GZ34" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA34" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB34" t="s" s="10">
-        <v>38</v>
+      <c r="GZ34" t="n" s="10">
+        <v>4.3470433E7</v>
+      </c>
+      <c r="HA34" t="n" s="10">
+        <v>4.8359244E7</v>
+      </c>
+      <c r="HB34" t="n" s="10">
+        <v>4.091152E7</v>
       </c>
       <c r="HC34" t="s" s="10">
         <v>38</v>
@@ -22715,14 +22721,14 @@
       <c r="GY35" t="n" s="10">
         <v>1.2843178E7</v>
       </c>
-      <c r="GZ35" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA35" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB35" t="s" s="10">
-        <v>38</v>
+      <c r="GZ35" t="n" s="10">
+        <v>1.4080168E7</v>
+      </c>
+      <c r="HA35" t="n" s="10">
+        <v>1.5876764E7</v>
+      </c>
+      <c r="HB35" t="n" s="10">
+        <v>1.3753645E7</v>
       </c>
       <c r="HC35" t="s" s="10">
         <v>38</v>
@@ -23371,14 +23377,14 @@
       <c r="GY36" t="n" s="10">
         <v>2.5188857E7</v>
       </c>
-      <c r="GZ36" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA36" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB36" t="s" s="10">
-        <v>38</v>
+      <c r="GZ36" t="n" s="10">
+        <v>2.9390265E7</v>
+      </c>
+      <c r="HA36" t="n" s="10">
+        <v>3.248248E7</v>
+      </c>
+      <c r="HB36" t="n" s="10">
+        <v>2.7157875E7</v>
       </c>
       <c r="HC36" t="s" s="10">
         <v>38</v>
@@ -24032,14 +24038,14 @@
       <c r="GY38" t="n" s="10">
         <v>775.0</v>
       </c>
-      <c r="GZ38" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA38" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB38" t="s" s="10">
-        <v>38</v>
+      <c r="GZ38" t="n" s="10">
+        <v>786.0</v>
+      </c>
+      <c r="HA38" t="n" s="10">
+        <v>786.0</v>
+      </c>
+      <c r="HB38" t="n" s="10">
+        <v>785.0</v>
       </c>
       <c r="HC38" t="s" s="10">
         <v>38</v>
@@ -24688,14 +24694,14 @@
       <c r="GY39" t="n" s="10">
         <v>178656.0</v>
       </c>
-      <c r="GZ39" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA39" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB39" t="s" s="10">
-        <v>38</v>
+      <c r="GZ39" t="n" s="10">
+        <v>179637.0</v>
+      </c>
+      <c r="HA39" t="n" s="10">
+        <v>179996.0</v>
+      </c>
+      <c r="HB39" t="n" s="10">
+        <v>179925.0</v>
       </c>
       <c r="HC39" t="s" s="10">
         <v>38</v>
@@ -25344,14 +25350,14 @@
       <c r="GY40" t="n" s="10">
         <v>21799.0</v>
       </c>
-      <c r="GZ40" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA40" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB40" t="s" s="10">
-        <v>38</v>
+      <c r="GZ40" t="n" s="10">
+        <v>22389.0</v>
+      </c>
+      <c r="HA40" t="n" s="10">
+        <v>24373.0</v>
+      </c>
+      <c r="HB40" t="n" s="10">
+        <v>20861.0</v>
       </c>
       <c r="HC40" t="s" s="10">
         <v>38</v>
@@ -26000,14 +26006,14 @@
       <c r="GY41" t="n" s="10">
         <v>695109.0</v>
       </c>
-      <c r="GZ41" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA41" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB41" t="s" s="10">
-        <v>38</v>
+      <c r="GZ41" t="n" s="10">
+        <v>731212.0</v>
+      </c>
+      <c r="HA41" t="n" s="10">
+        <v>733104.0</v>
+      </c>
+      <c r="HB41" t="n" s="10">
+        <v>723454.0</v>
       </c>
       <c r="HC41" t="s" s="10">
         <v>38</v>
@@ -26656,14 +26662,14 @@
       <c r="GY42" t="n" s="10">
         <v>3954850.0</v>
       </c>
-      <c r="GZ42" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA42" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB42" t="s" s="10">
-        <v>38</v>
+      <c r="GZ42" t="n" s="10">
+        <v>4252772.0</v>
+      </c>
+      <c r="HA42" t="n" s="10">
+        <v>4788133.0</v>
+      </c>
+      <c r="HB42" t="n" s="10">
+        <v>4156594.0</v>
       </c>
       <c r="HC42" t="s" s="10">
         <v>38</v>
@@ -27312,14 +27318,14 @@
       <c r="GY43" t="n" s="10">
         <v>1913686.0</v>
       </c>
-      <c r="GZ43" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA43" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB43" t="s" s="10">
-        <v>38</v>
+      <c r="GZ43" t="n" s="10">
+        <v>2076336.0</v>
+      </c>
+      <c r="HA43" t="n" s="10">
+        <v>2407707.0</v>
+      </c>
+      <c r="HB43" t="n" s="10">
+        <v>2000464.0</v>
       </c>
       <c r="HC43" t="s" s="10">
         <v>38</v>
@@ -27968,14 +27974,14 @@
       <c r="GY44" t="n" s="10">
         <v>2041164.0</v>
       </c>
-      <c r="GZ44" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA44" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB44" t="s" s="10">
-        <v>38</v>
+      <c r="GZ44" t="n" s="10">
+        <v>2176435.0</v>
+      </c>
+      <c r="HA44" t="n" s="10">
+        <v>2380426.0</v>
+      </c>
+      <c r="HB44" t="n" s="10">
+        <v>2156130.0</v>
       </c>
       <c r="HC44" t="s" s="10">
         <v>38</v>
@@ -28624,14 +28630,14 @@
       <c r="GY45" t="n" s="10">
         <v>1088659.0</v>
       </c>
-      <c r="GZ45" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA45" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB45" t="s" s="10">
-        <v>38</v>
+      <c r="GZ45" t="n" s="10">
+        <v>1167238.0</v>
+      </c>
+      <c r="HA45" t="n" s="10">
+        <v>1243390.0</v>
+      </c>
+      <c r="HB45" t="n" s="10">
+        <v>1196857.0</v>
       </c>
       <c r="HC45" t="s" s="10">
         <v>38</v>
@@ -29280,14 +29286,14 @@
       <c r="GY46" t="n" s="10">
         <v>952505.0</v>
       </c>
-      <c r="GZ46" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA46" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB46" t="s" s="10">
-        <v>38</v>
+      <c r="GZ46" t="n" s="10">
+        <v>1009198.0</v>
+      </c>
+      <c r="HA46" t="n" s="10">
+        <v>1137036.0</v>
+      </c>
+      <c r="HB46" t="n" s="10">
+        <v>959273.0</v>
       </c>
       <c r="HC46" t="s" s="10">
         <v>38</v>
@@ -29941,14 +29947,14 @@
       <c r="GY48" t="n" s="10">
         <v>3960.0</v>
       </c>
-      <c r="GZ48" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA48" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB48" t="s" s="10">
-        <v>38</v>
+      <c r="GZ48" t="n" s="10">
+        <v>4016.0</v>
+      </c>
+      <c r="HA48" t="n" s="10">
+        <v>4026.0</v>
+      </c>
+      <c r="HB48" t="n" s="10">
+        <v>4028.0</v>
       </c>
       <c r="HC48" t="s" s="10">
         <v>38</v>
@@ -30597,14 +30603,14 @@
       <c r="GY49" t="n" s="10">
         <v>821582.0</v>
       </c>
-      <c r="GZ49" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA49" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB49" t="s" s="10">
-        <v>38</v>
+      <c r="GZ49" t="n" s="10">
+        <v>826226.0</v>
+      </c>
+      <c r="HA49" t="n" s="10">
+        <v>829802.0</v>
+      </c>
+      <c r="HB49" t="n" s="10">
+        <v>828797.0</v>
       </c>
       <c r="HC49" t="s" s="10">
         <v>38</v>
@@ -31253,14 +31259,14 @@
       <c r="GY50" t="n" s="10">
         <v>103136.0</v>
       </c>
-      <c r="GZ50" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA50" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB50" t="s" s="10">
-        <v>38</v>
+      <c r="GZ50" t="n" s="10">
+        <v>101212.0</v>
+      </c>
+      <c r="HA50" t="n" s="10">
+        <v>110575.0</v>
+      </c>
+      <c r="HB50" t="n" s="10">
+        <v>99605.0</v>
       </c>
       <c r="HC50" t="s" s="10">
         <v>38</v>
@@ -31909,14 +31915,14 @@
       <c r="GY51" t="n" s="10">
         <v>2778779.0</v>
       </c>
-      <c r="GZ51" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA51" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB51" t="s" s="10">
-        <v>38</v>
+      <c r="GZ51" t="n" s="10">
+        <v>2750493.0</v>
+      </c>
+      <c r="HA51" t="n" s="10">
+        <v>3024186.0</v>
+      </c>
+      <c r="HB51" t="n" s="10">
+        <v>3234014.0</v>
       </c>
       <c r="HC51" t="s" s="10">
         <v>38</v>
@@ -32565,14 +32571,14 @@
       <c r="GY52" t="n" s="10">
         <v>2.1665025E7</v>
       </c>
-      <c r="GZ52" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA52" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB52" t="s" s="10">
-        <v>38</v>
+      <c r="GZ52" t="n" s="10">
+        <v>2.1954814E7</v>
+      </c>
+      <c r="HA52" t="n" s="10">
+        <v>2.6198547E7</v>
+      </c>
+      <c r="HB52" t="n" s="10">
+        <v>2.3330258E7</v>
       </c>
       <c r="HC52" t="s" s="10">
         <v>38</v>
@@ -33221,14 +33227,14 @@
       <c r="GY53" t="n" s="10">
         <v>1.4797423E7</v>
       </c>
-      <c r="GZ53" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA53" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB53" t="s" s="10">
-        <v>38</v>
+      <c r="GZ53" t="n" s="10">
+        <v>1.4717597E7</v>
+      </c>
+      <c r="HA53" t="n" s="10">
+        <v>1.7704404E7</v>
+      </c>
+      <c r="HB53" t="n" s="10">
+        <v>1.6054523E7</v>
       </c>
       <c r="HC53" t="s" s="10">
         <v>38</v>
@@ -33877,14 +33883,14 @@
       <c r="GY54" t="n" s="10">
         <v>6867602.0</v>
       </c>
-      <c r="GZ54" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA54" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB54" t="s" s="10">
-        <v>38</v>
+      <c r="GZ54" t="n" s="10">
+        <v>7237217.0</v>
+      </c>
+      <c r="HA54" t="n" s="10">
+        <v>8494143.0</v>
+      </c>
+      <c r="HB54" t="n" s="10">
+        <v>7275735.0</v>
       </c>
       <c r="HC54" t="s" s="10">
         <v>38</v>
@@ -34533,14 +34539,14 @@
       <c r="GY55" t="n" s="10">
         <v>3787529.0</v>
       </c>
-      <c r="GZ55" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA55" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB55" t="s" s="10">
-        <v>38</v>
+      <c r="GZ55" t="n" s="10">
+        <v>3844299.0</v>
+      </c>
+      <c r="HA55" t="n" s="10">
+        <v>4562784.0</v>
+      </c>
+      <c r="HB55" t="n" s="10">
+        <v>3954013.0</v>
       </c>
       <c r="HC55" t="s" s="10">
         <v>38</v>
@@ -35189,14 +35195,14 @@
       <c r="GY56" t="n" s="10">
         <v>3080073.0</v>
       </c>
-      <c r="GZ56" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA56" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB56" t="s" s="10">
-        <v>38</v>
+      <c r="GZ56" t="n" s="10">
+        <v>3392918.0</v>
+      </c>
+      <c r="HA56" t="n" s="10">
+        <v>3931360.0</v>
+      </c>
+      <c r="HB56" t="n" s="10">
+        <v>3321722.0</v>
       </c>
       <c r="HC56" t="s" s="10">
         <v>38</v>
@@ -35850,14 +35856,14 @@
       <c r="GY58" t="n" s="10">
         <v>82.0</v>
       </c>
-      <c r="GZ58" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA58" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB58" t="s" s="10">
-        <v>38</v>
+      <c r="GZ58" t="n" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="HA58" t="n" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="HB58" t="n" s="10">
+        <v>81.0</v>
       </c>
       <c r="HC58" t="s" s="10">
         <v>38</v>
@@ -36506,14 +36512,14 @@
       <c r="GY59" t="n" s="10">
         <v>28073.0</v>
       </c>
-      <c r="GZ59" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA59" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB59" t="s" s="10">
-        <v>38</v>
+      <c r="GZ59" t="n" s="10">
+        <v>28029.0</v>
+      </c>
+      <c r="HA59" t="n" s="10">
+        <v>27629.0</v>
+      </c>
+      <c r="HB59" t="n" s="10">
+        <v>27471.0</v>
       </c>
       <c r="HC59" t="s" s="10">
         <v>38</v>
@@ -37162,14 +37168,14 @@
       <c r="GY60" t="n" s="10">
         <v>3954.0</v>
       </c>
-      <c r="GZ60" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA60" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB60" t="s" s="10">
-        <v>38</v>
+      <c r="GZ60" t="n" s="10">
+        <v>3742.0</v>
+      </c>
+      <c r="HA60" t="n" s="10">
+        <v>3978.0</v>
+      </c>
+      <c r="HB60" t="n" s="10">
+        <v>3601.0</v>
       </c>
       <c r="HC60" t="s" s="10">
         <v>38</v>
@@ -37818,14 +37824,14 @@
       <c r="GY61" t="n" s="10">
         <v>164189.0</v>
       </c>
-      <c r="GZ61" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA61" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB61" t="s" s="10">
-        <v>38</v>
+      <c r="GZ61" t="n" s="10">
+        <v>186570.0</v>
+      </c>
+      <c r="HA61" t="n" s="10">
+        <v>197233.0</v>
+      </c>
+      <c r="HB61" t="n" s="10">
+        <v>185360.0</v>
       </c>
       <c r="HC61" t="s" s="10">
         <v>38</v>
@@ -38474,14 +38480,14 @@
       <c r="GY62" t="n" s="10">
         <v>8868187.0</v>
       </c>
-      <c r="GZ62" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA62" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB62" t="s" s="10">
-        <v>38</v>
+      <c r="GZ62" t="n" s="10">
+        <v>9313166.0</v>
+      </c>
+      <c r="HA62" t="n" s="10">
+        <v>1.1030236E7</v>
+      </c>
+      <c r="HB62" t="n" s="10">
+        <v>1.127894E7</v>
       </c>
       <c r="HC62" t="s" s="10">
         <v>38</v>
@@ -39130,14 +39136,14 @@
       <c r="GY63" t="n" s="10">
         <v>7897426.0</v>
       </c>
-      <c r="GZ63" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA63" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB63" t="s" s="10">
-        <v>38</v>
+      <c r="GZ63" t="n" s="10">
+        <v>8235609.0</v>
+      </c>
+      <c r="HA63" t="n" s="10">
+        <v>9715101.0</v>
+      </c>
+      <c r="HB63" t="n" s="10">
+        <v>1.0003896E7</v>
       </c>
       <c r="HC63" t="s" s="10">
         <v>38</v>
@@ -39786,14 +39792,14 @@
       <c r="GY64" t="n" s="10">
         <v>970761.0</v>
       </c>
-      <c r="GZ64" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA64" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB64" t="s" s="10">
-        <v>38</v>
+      <c r="GZ64" t="n" s="10">
+        <v>1077558.0</v>
+      </c>
+      <c r="HA64" t="n" s="10">
+        <v>1315134.0</v>
+      </c>
+      <c r="HB64" t="n" s="10">
+        <v>1275044.0</v>
       </c>
       <c r="HC64" t="s" s="10">
         <v>38</v>
@@ -40442,14 +40448,14 @@
       <c r="GY65" t="n" s="10">
         <v>630455.0</v>
       </c>
-      <c r="GZ65" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA65" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB65" t="s" s="10">
-        <v>38</v>
+      <c r="GZ65" t="n" s="10">
+        <v>737485.0</v>
+      </c>
+      <c r="HA65" t="n" s="10">
+        <v>915567.0</v>
+      </c>
+      <c r="HB65" t="n" s="10">
+        <v>835197.0</v>
       </c>
       <c r="HC65" t="s" s="10">
         <v>38</v>
@@ -41098,14 +41104,14 @@
       <c r="GY66" t="n" s="10">
         <v>340306.0</v>
       </c>
-      <c r="GZ66" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA66" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB66" t="s" s="10">
-        <v>38</v>
+      <c r="GZ66" t="n" s="10">
+        <v>340073.0</v>
+      </c>
+      <c r="HA66" t="n" s="10">
+        <v>399567.0</v>
+      </c>
+      <c r="HB66" t="n" s="10">
+        <v>439847.0</v>
       </c>
       <c r="HC66" t="s" s="10">
         <v>38</v>
@@ -41759,14 +41765,14 @@
       <c r="GY68" t="n" s="10">
         <v>131.0</v>
       </c>
-      <c r="GZ68" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA68" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB68" t="s" s="10">
-        <v>38</v>
+      <c r="GZ68" t="n" s="10">
+        <v>130.0</v>
+      </c>
+      <c r="HA68" t="n" s="10">
+        <v>133.0</v>
+      </c>
+      <c r="HB68" t="n" s="10">
+        <v>133.0</v>
       </c>
       <c r="HC68" t="s" s="10">
         <v>38</v>
@@ -42415,14 +42421,14 @@
       <c r="GY69" t="n" s="10">
         <v>22402.0</v>
       </c>
-      <c r="GZ69" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA69" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB69" t="s" s="10">
-        <v>38</v>
+      <c r="GZ69" t="n" s="10">
+        <v>22345.0</v>
+      </c>
+      <c r="HA69" t="n" s="10">
+        <v>22628.0</v>
+      </c>
+      <c r="HB69" t="n" s="10">
+        <v>22724.0</v>
       </c>
       <c r="HC69" t="s" s="10">
         <v>38</v>
@@ -43071,14 +43077,14 @@
       <c r="GY70" t="n" s="10">
         <v>2937.0</v>
       </c>
-      <c r="GZ70" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA70" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB70" t="s" s="10">
-        <v>38</v>
+      <c r="GZ70" t="n" s="10">
+        <v>2840.0</v>
+      </c>
+      <c r="HA70" t="n" s="10">
+        <v>3199.0</v>
+      </c>
+      <c r="HB70" t="n" s="10">
+        <v>2884.0</v>
       </c>
       <c r="HC70" t="s" s="10">
         <v>38</v>
@@ -43727,14 +43733,14 @@
       <c r="GY71" t="n" s="10">
         <v>101924.0</v>
       </c>
-      <c r="GZ71" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA71" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB71" t="s" s="10">
-        <v>38</v>
+      <c r="GZ71" t="n" s="10">
+        <v>113135.0</v>
+      </c>
+      <c r="HA71" t="n" s="10">
+        <v>110374.0</v>
+      </c>
+      <c r="HB71" t="n" s="10">
+        <v>121941.0</v>
       </c>
       <c r="HC71" t="s" s="10">
         <v>38</v>
@@ -44383,14 +44389,14 @@
       <c r="GY72" t="n" s="10">
         <v>463383.0</v>
       </c>
-      <c r="GZ72" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA72" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB72" t="s" s="10">
-        <v>38</v>
+      <c r="GZ72" t="n" s="10">
+        <v>438914.0</v>
+      </c>
+      <c r="HA72" t="n" s="10">
+        <v>532908.0</v>
+      </c>
+      <c r="HB72" t="n" s="10">
+        <v>481896.0</v>
       </c>
       <c r="HC72" t="s" s="10">
         <v>38</v>
@@ -45039,14 +45045,14 @@
       <c r="GY73" t="n" s="10">
         <v>412944.0</v>
       </c>
-      <c r="GZ73" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA73" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB73" t="s" s="10">
-        <v>38</v>
+      <c r="GZ73" t="n" s="10">
+        <v>387775.0</v>
+      </c>
+      <c r="HA73" t="n" s="10">
+        <v>475129.0</v>
+      </c>
+      <c r="HB73" t="n" s="10">
+        <v>430024.0</v>
       </c>
       <c r="HC73" t="s" s="10">
         <v>38</v>
@@ -45695,14 +45701,14 @@
       <c r="GY74" t="n" s="10">
         <v>50438.0</v>
       </c>
-      <c r="GZ74" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA74" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB74" t="s" s="10">
-        <v>38</v>
+      <c r="GZ74" t="n" s="10">
+        <v>51139.0</v>
+      </c>
+      <c r="HA74" t="n" s="10">
+        <v>57779.0</v>
+      </c>
+      <c r="HB74" t="n" s="10">
+        <v>51872.0</v>
       </c>
       <c r="HC74" t="s" s="10">
         <v>38</v>
@@ -46351,14 +46357,14 @@
       <c r="GY75" t="n" s="10">
         <v>28777.0</v>
       </c>
-      <c r="GZ75" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA75" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB75" t="s" s="10">
-        <v>38</v>
+      <c r="GZ75" t="n" s="10">
+        <v>31864.0</v>
+      </c>
+      <c r="HA75" t="n" s="10">
+        <v>36691.0</v>
+      </c>
+      <c r="HB75" t="n" s="10">
+        <v>33952.0</v>
       </c>
       <c r="HC75" t="s" s="10">
         <v>38</v>
@@ -47007,14 +47013,14 @@
       <c r="GY76" t="n" s="10">
         <v>21662.0</v>
       </c>
-      <c r="GZ76" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA76" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB76" t="s" s="10">
-        <v>38</v>
+      <c r="GZ76" t="n" s="10">
+        <v>19275.0</v>
+      </c>
+      <c r="HA76" t="n" s="10">
+        <v>21089.0</v>
+      </c>
+      <c r="HB76" t="n" s="10">
+        <v>17920.0</v>
       </c>
       <c r="HC76" t="s" s="10">
         <v>38</v>
@@ -47668,14 +47674,14 @@
       <c r="GY78" t="n" s="10">
         <v>22156.0</v>
       </c>
-      <c r="GZ78" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA78" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB78" t="s" s="10">
-        <v>38</v>
+      <c r="GZ78" t="n" s="10">
+        <v>22467.0</v>
+      </c>
+      <c r="HA78" t="n" s="10">
+        <v>22527.0</v>
+      </c>
+      <c r="HB78" t="n" s="10">
+        <v>22534.0</v>
       </c>
       <c r="HC78" t="s" s="10">
         <v>38</v>
@@ -48324,14 +48330,14 @@
       <c r="GY79" t="n" s="10">
         <v>5457577.0</v>
       </c>
-      <c r="GZ79" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA79" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB79" t="s" s="10">
-        <v>38</v>
+      <c r="GZ79" t="n" s="10">
+        <v>5480497.0</v>
+      </c>
+      <c r="HA79" t="n" s="10">
+        <v>5486075.0</v>
+      </c>
+      <c r="HB79" t="n" s="10">
+        <v>5483832.0</v>
       </c>
       <c r="HC79" t="s" s="10">
         <v>38</v>
@@ -48980,14 +48986,14 @@
       <c r="GY80" t="n" s="10">
         <v>670177.0</v>
       </c>
-      <c r="GZ80" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA80" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB80" t="s" s="10">
-        <v>38</v>
+      <c r="GZ80" t="n" s="10">
+        <v>681408.0</v>
+      </c>
+      <c r="HA80" t="n" s="10">
+        <v>742269.0</v>
+      </c>
+      <c r="HB80" t="n" s="10">
+        <v>645206.0</v>
       </c>
       <c r="HC80" t="s" s="10">
         <v>38</v>
@@ -49636,14 +49642,14 @@
       <c r="GY81" t="n" s="10">
         <v>2.4173586E7</v>
       </c>
-      <c r="GZ81" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA81" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB81" t="s" s="10">
-        <v>38</v>
+      <c r="GZ81" t="n" s="10">
+        <v>2.4755824E7</v>
+      </c>
+      <c r="HA81" t="n" s="10">
+        <v>2.4855344E7</v>
+      </c>
+      <c r="HB81" t="n" s="10">
+        <v>2.648419E7</v>
       </c>
       <c r="HC81" t="s" s="10">
         <v>38</v>
@@ -50292,14 +50298,14 @@
       <c r="GY82" t="n" s="10">
         <v>1.53923762E8</v>
       </c>
-      <c r="GZ82" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA82" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB82" t="s" s="10">
-        <v>38</v>
+      <c r="GZ82" t="n" s="10">
+        <v>1.63884898E8</v>
+      </c>
+      <c r="HA82" t="n" s="10">
+        <v>1.88571795E8</v>
+      </c>
+      <c r="HB82" t="n" s="10">
+        <v>1.65187473E8</v>
       </c>
       <c r="HC82" t="s" s="10">
         <v>38</v>
@@ -50948,14 +50954,14 @@
       <c r="GY83" t="n" s="10">
         <v>7.761059E7</v>
       </c>
-      <c r="GZ83" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA83" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB83" t="s" s="10">
-        <v>38</v>
+      <c r="GZ83" t="n" s="10">
+        <v>8.0897683E7</v>
+      </c>
+      <c r="HA83" t="n" s="10">
+        <v>9.4545722E7</v>
+      </c>
+      <c r="HB83" t="n" s="10">
+        <v>8.4218952E7</v>
       </c>
       <c r="HC83" t="s" s="10">
         <v>38</v>
@@ -51604,14 +51610,14 @@
       <c r="GY84" t="n" s="10">
         <v>7.6313172E7</v>
       </c>
-      <c r="GZ84" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA84" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB84" t="s" s="10">
-        <v>38</v>
+      <c r="GZ84" t="n" s="10">
+        <v>8.2987215E7</v>
+      </c>
+      <c r="HA84" t="n" s="10">
+        <v>9.4026074E7</v>
+      </c>
+      <c r="HB84" t="n" s="10">
+        <v>8.0968521E7</v>
       </c>
       <c r="HC84" t="s" s="10">
         <v>38</v>
@@ -52260,14 +52266,14 @@
       <c r="GY85" t="n" s="10">
         <v>3.21333E7</v>
       </c>
-      <c r="GZ85" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA85" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB85" t="s" s="10">
-        <v>38</v>
+      <c r="GZ85" t="n" s="10">
+        <v>3.3784146E7</v>
+      </c>
+      <c r="HA85" t="n" s="10">
+        <v>3.8469197E7</v>
+      </c>
+      <c r="HB85" t="n" s="10">
+        <v>3.3685053E7</v>
       </c>
       <c r="HC85" t="s" s="10">
         <v>38</v>
@@ -52916,14 +52922,14 @@
       <c r="GY86" t="n" s="10">
         <v>4.4179872E7</v>
       </c>
-      <c r="GZ86" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HA86" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="HB86" t="s" s="10">
-        <v>38</v>
+      <c r="GZ86" t="n" s="10">
+        <v>4.9203068E7</v>
+      </c>
+      <c r="HA86" t="n" s="10">
+        <v>5.5556877E7</v>
+      </c>
+      <c r="HB86" t="n" s="10">
+        <v>4.7283468E7</v>
       </c>
       <c r="HC86" t="s" s="10">
         <v>38</v>
@@ -53047,7 +53053,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:26:19&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:04:02&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Persons employed and turnover of local units in manufacturing.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Persons employed and turnover of local units in manufacturing.xlsx
@@ -217,7 +217,7 @@
     <t>in branch assignments.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:03:52</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:17:43</t>
   </si>
 </sst>
 </file>
@@ -53053,7 +53053,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:04:02&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:17:52&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>